--- a/src/analysis_examples/circadb/results_jtk/cosinor_10355893_epha4_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10355893_epha4_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2862219342796856, 0.36833570180027747]</t>
+          <t>[0.2866892032504562, 0.3678684328295069]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.540989558179717e-13</v>
+        <v>1.232347557333924e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>1.540989558179717e-13</v>
+        <v>1.232347557333924e-13</v>
       </c>
       <c r="O2" t="n">
         <v>-1.509473947670772</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4318086297521011, 0.4848068115819666]</t>
+          <t>[0.431774966428793, 0.4848404749052747]</t>
         </is>
       </c>
       <c r="U2" t="n">
